--- a/Docs/projet cir 1.xlsx
+++ b/Docs/projet cir 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timch\OneDrive\Bureau\projet_CIR_1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC9570A4-7E28-4BA6-BD14-2F4A52B7EB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33B1693D-97A0-4F93-A665-3B24A607C394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B859EFBA-22A3-44D5-A3E1-E944AAE29627}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>PROJET CIR 1</t>
   </si>
@@ -92,8 +92,22 @@
     <t xml:space="preserve">rendre P1 du projet </t>
   </si>
   <si>
-    <t>depos git 
-exel</t>
+    <t>code fonctionel et terminé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commenter le code 
+echange des codes  </t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depos git 
+exel
+etude du sujet </t>
+  </si>
+  <si>
+    <t>sans l'etude du sujet la repartition des taches était compliquée</t>
   </si>
 </sst>
 </file>
@@ -115,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,13 +138,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,28 +211,28 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,15 +550,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8158C061-7162-4178-8CAB-B8F5987B8CBE}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -558,167 +578,175 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
